--- a/team_specific_matrix/Coppin St._B.xlsx
+++ b/team_specific_matrix/Coppin St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2011173184357542</v>
+        <v>0.1886120996441281</v>
       </c>
       <c r="C2">
-        <v>0.553072625698324</v>
+        <v>0.5729537366548043</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0111731843575419</v>
+        <v>0.02491103202846975</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1620111731843575</v>
+        <v>0.1459074733096085</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07262569832402235</v>
+        <v>0.06761565836298933</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0101010101010101</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="C3">
-        <v>0.0202020202020202</v>
+        <v>0.01840490797546012</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04040404040404041</v>
+        <v>0.03680981595092025</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.797979797979798</v>
+        <v>0.7668711656441718</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1313131313131313</v>
+        <v>0.1717791411042945</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04166666666666666</v>
+        <v>0.03125</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8333333333333334</v>
+        <v>0.84375</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08490566037735849</v>
+        <v>0.07909604519774012</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009433962264150943</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0660377358490566</v>
+        <v>0.05649717514124294</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2641509433962264</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03773584905660377</v>
+        <v>0.02824858757062147</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1132075471698113</v>
+        <v>0.1412429378531073</v>
       </c>
       <c r="R6">
-        <v>0.1037735849056604</v>
+        <v>0.1073446327683616</v>
       </c>
       <c r="S6">
-        <v>0.3207547169811321</v>
+        <v>0.3163841807909605</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.108695652173913</v>
+        <v>0.09929078014184398</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02173913043478261</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1630434782608696</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03260869565217391</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1521739130434783</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="R7">
-        <v>0.09782608695652174</v>
+        <v>0.09929078014184398</v>
       </c>
       <c r="S7">
-        <v>0.4239130434782609</v>
+        <v>0.4397163120567376</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1089108910891089</v>
+        <v>0.09841269841269841</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0198019801980198</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04950495049504951</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1485148514851485</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03465346534653466</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1435643564356436</v>
+        <v>0.1396825396825397</v>
       </c>
       <c r="R8">
-        <v>0.08415841584158416</v>
+        <v>0.09206349206349207</v>
       </c>
       <c r="S8">
-        <v>0.4108910891089109</v>
+        <v>0.4222222222222222</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1384615384615385</v>
+        <v>0.1274509803921569</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03076923076923077</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03076923076923077</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09230769230769231</v>
+        <v>0.107843137254902</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01538461538461539</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2461538461538462</v>
+        <v>0.2254901960784314</v>
       </c>
       <c r="R9">
-        <v>0.04615384615384616</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="S9">
-        <v>0.4</v>
+        <v>0.392156862745098</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1124183006535948</v>
+        <v>0.1177884615384615</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02091503267973856</v>
+        <v>0.01682692307692308</v>
       </c>
       <c r="E10">
-        <v>0.00261437908496732</v>
+        <v>0.001602564102564103</v>
       </c>
       <c r="F10">
-        <v>0.06797385620915032</v>
+        <v>0.06570512820512821</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1503267973856209</v>
+        <v>0.1530448717948718</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02352941176470588</v>
+        <v>0.02163461538461538</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.196078431372549</v>
+        <v>0.202724358974359</v>
       </c>
       <c r="R10">
-        <v>0.06797385620915032</v>
+        <v>0.07051282051282051</v>
       </c>
       <c r="S10">
-        <v>0.3581699346405229</v>
+        <v>0.3501602564102564</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.145985401459854</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1094890510948905</v>
+        <v>0.1018518518518518</v>
       </c>
       <c r="K11">
-        <v>0.1824817518248175</v>
+        <v>0.1805555555555556</v>
       </c>
       <c r="L11">
-        <v>0.5620437956204379</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.004629629629629629</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7341772151898734</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.189873417721519</v>
+        <v>0.2301587301587301</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02531645569620253</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05063291139240506</v>
+        <v>0.03174603174603174</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7777777777777778</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1111111111111111</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1111111111111111</v>
+        <v>0.06896551724137931</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04132231404958678</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1074380165289256</v>
+        <v>0.1210526315789474</v>
       </c>
       <c r="I15">
-        <v>0.04958677685950413</v>
+        <v>0.05789473684210526</v>
       </c>
       <c r="J15">
-        <v>0.3966942148760331</v>
+        <v>0.4</v>
       </c>
       <c r="K15">
-        <v>0.05785123966942149</v>
+        <v>0.06842105263157895</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09090909090909091</v>
+        <v>0.06842105263157895</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.256198347107438</v>
+        <v>0.2421052631578947</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.008064516129032258</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="I16">
+        <v>0.05913978494623656</v>
+      </c>
+      <c r="J16">
+        <v>0.489247311827957</v>
+      </c>
+      <c r="K16">
         <v>0.09677419354838709</v>
       </c>
-      <c r="I16">
-        <v>0.04838709677419355</v>
-      </c>
-      <c r="J16">
-        <v>0.4838709677419355</v>
-      </c>
-      <c r="K16">
-        <v>0.1209677419354839</v>
-      </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.008064516129032258</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1854838709677419</v>
+        <v>0.1505376344086022</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01376146788990826</v>
+        <v>0.02521008403361345</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1743119266055046</v>
+        <v>0.15406162464986</v>
       </c>
       <c r="I17">
-        <v>0.07339449541284404</v>
+        <v>0.07002801120448179</v>
       </c>
       <c r="J17">
-        <v>0.463302752293578</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="K17">
-        <v>0.07798165137614679</v>
+        <v>0.07563025210084033</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01376146788990826</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="N17">
-        <v>0.004587155963302753</v>
+        <v>0.002801120448179272</v>
       </c>
       <c r="O17">
-        <v>0.05045871559633028</v>
+        <v>0.05602240896358544</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1284403669724771</v>
+        <v>0.1316526610644258</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01098901098901099</v>
+        <v>0.0125</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2197802197802198</v>
+        <v>0.18125</v>
       </c>
       <c r="I18">
-        <v>0.1318681318681319</v>
+        <v>0.10625</v>
       </c>
       <c r="J18">
-        <v>0.3846153846153846</v>
+        <v>0.4875</v>
       </c>
       <c r="K18">
-        <v>0.1098901098901099</v>
+        <v>0.08125</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.0125</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06593406593406594</v>
+        <v>0.05</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07692307692307693</v>
+        <v>0.06875000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01567398119122257</v>
+        <v>0.01377952755905512</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1927899686520376</v>
+        <v>0.187992125984252</v>
       </c>
       <c r="I19">
-        <v>0.03918495297805643</v>
+        <v>0.03838582677165354</v>
       </c>
       <c r="J19">
-        <v>0.4639498432601881</v>
+        <v>0.4586614173228347</v>
       </c>
       <c r="K19">
-        <v>0.09247648902821316</v>
+        <v>0.09744094488188976</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02037617554858934</v>
+        <v>0.01968503937007874</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06739811912225706</v>
+        <v>0.06988188976377953</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1081504702194357</v>
+        <v>0.1141732283464567</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Coppin St._B.xlsx
+++ b/team_specific_matrix/Coppin St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1886120996441281</v>
+        <v>0.1849529780564263</v>
       </c>
       <c r="C2">
-        <v>0.5729537366548043</v>
+        <v>0.567398119122257</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02491103202846975</v>
+        <v>0.0219435736677116</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1459074733096085</v>
+        <v>0.1536050156739812</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06761565836298933</v>
+        <v>0.07210031347962383</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006134969325153374</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="C3">
-        <v>0.01840490797546012</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03680981595092025</v>
+        <v>0.03825136612021858</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7668711656441718</v>
+        <v>0.7704918032786885</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1717791411042945</v>
+        <v>0.1693989071038251</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03125</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.84375</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.125</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07909604519774012</v>
+        <v>0.07106598984771574</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01694915254237288</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05649717514124294</v>
+        <v>0.05583756345177665</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2542372881355932</v>
+        <v>0.2487309644670051</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02824858757062147</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1412429378531073</v>
+        <v>0.1421319796954315</v>
       </c>
       <c r="R6">
-        <v>0.1073446327683616</v>
+        <v>0.1065989847715736</v>
       </c>
       <c r="S6">
-        <v>0.3163841807909605</v>
+        <v>0.3350253807106599</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09929078014184398</v>
+        <v>0.103030303030303</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0425531914893617</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1702127659574468</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02127659574468085</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1276595744680851</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="R7">
-        <v>0.09929078014184398</v>
+        <v>0.09696969696969697</v>
       </c>
       <c r="S7">
-        <v>0.4397163120567376</v>
+        <v>0.4484848484848485</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09841269841269841</v>
+        <v>0.1040462427745665</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01587301587301587</v>
+        <v>0.01445086705202312</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06666666666666667</v>
+        <v>0.06358381502890173</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1333333333333333</v>
+        <v>0.138728323699422</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03174603174603174</v>
+        <v>0.03179190751445087</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1396825396825397</v>
+        <v>0.1416184971098266</v>
       </c>
       <c r="R8">
-        <v>0.09206349206349207</v>
+        <v>0.09248554913294797</v>
       </c>
       <c r="S8">
-        <v>0.4222222222222222</v>
+        <v>0.4132947976878613</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1274509803921569</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0196078431372549</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0392156862745098</v>
+        <v>0.0310077519379845</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.107843137254902</v>
+        <v>0.1085271317829457</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.009803921568627451</v>
+        <v>0.0310077519379845</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2254901960784314</v>
+        <v>0.2170542635658915</v>
       </c>
       <c r="R9">
-        <v>0.07843137254901961</v>
+        <v>0.08527131782945736</v>
       </c>
       <c r="S9">
-        <v>0.392156862745098</v>
+        <v>0.3875968992248062</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1177884615384615</v>
+        <v>0.1212996389891697</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01682692307692308</v>
+        <v>0.01732851985559567</v>
       </c>
       <c r="E10">
-        <v>0.001602564102564103</v>
+        <v>0.001444043321299639</v>
       </c>
       <c r="F10">
-        <v>0.06570512820512821</v>
+        <v>0.06570397111913358</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1530448717948718</v>
+        <v>0.1509025270758123</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02163461538461538</v>
+        <v>0.02021660649819495</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.202724358974359</v>
+        <v>0.2</v>
       </c>
       <c r="R10">
-        <v>0.07051282051282051</v>
+        <v>0.07725631768953069</v>
       </c>
       <c r="S10">
-        <v>0.3501602564102564</v>
+        <v>0.3458483754512635</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1388888888888889</v>
+        <v>0.1370967741935484</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1018518518518518</v>
+        <v>0.1008064516129032</v>
       </c>
       <c r="K11">
-        <v>0.1805555555555556</v>
+        <v>0.1814516129032258</v>
       </c>
       <c r="L11">
-        <v>0.5740740740740741</v>
+        <v>0.5766129032258065</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.004629629629629629</v>
+        <v>0.004032258064516129</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7222222222222222</v>
+        <v>0.7364864864864865</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2301587301587301</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01587301587301587</v>
+        <v>0.03378378378378379</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03174603174603174</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7241379310344828</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2068965517241379</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06896551724137931</v>
+        <v>0.06451612903225806</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04210526315789474</v>
+        <v>0.03619909502262444</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1210526315789474</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="I15">
-        <v>0.05789473684210526</v>
+        <v>0.05429864253393665</v>
       </c>
       <c r="J15">
-        <v>0.4</v>
+        <v>0.416289592760181</v>
       </c>
       <c r="K15">
-        <v>0.06842105263157895</v>
+        <v>0.07239819004524888</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06842105263157895</v>
+        <v>0.06334841628959276</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2421052631578947</v>
+        <v>0.2398190045248869</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01075268817204301</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1290322580645161</v>
+        <v>0.1298076923076923</v>
       </c>
       <c r="I16">
-        <v>0.05913978494623656</v>
+        <v>0.0625</v>
       </c>
       <c r="J16">
-        <v>0.489247311827957</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="K16">
-        <v>0.09677419354838709</v>
+        <v>0.09134615384615384</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01612903225806452</v>
+        <v>0.01442307692307692</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04838709677419355</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1505376344086022</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02521008403361345</v>
+        <v>0.02267002518891688</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.15406162464986</v>
+        <v>0.1486146095717884</v>
       </c>
       <c r="I17">
-        <v>0.07002801120448179</v>
+        <v>0.07304785894206549</v>
       </c>
       <c r="J17">
-        <v>0.4761904761904762</v>
+        <v>0.4634760705289673</v>
       </c>
       <c r="K17">
-        <v>0.07563025210084033</v>
+        <v>0.08816120906801007</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.008403361344537815</v>
+        <v>0.01007556675062972</v>
       </c>
       <c r="N17">
-        <v>0.002801120448179272</v>
+        <v>0.002518891687657431</v>
       </c>
       <c r="O17">
-        <v>0.05602240896358544</v>
+        <v>0.06045340050377834</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1316526610644258</v>
+        <v>0.1309823677581864</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0125</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.18125</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="I18">
-        <v>0.10625</v>
+        <v>0.1058201058201058</v>
       </c>
       <c r="J18">
-        <v>0.4875</v>
+        <v>0.4867724867724867</v>
       </c>
       <c r="K18">
-        <v>0.08125</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0125</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05</v>
+        <v>0.05291005291005291</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06875000000000001</v>
+        <v>0.07936507936507936</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01377952755905512</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.187992125984252</v>
+        <v>0.1826163301141352</v>
       </c>
       <c r="I19">
-        <v>0.03838582677165354</v>
+        <v>0.04916593503072871</v>
       </c>
       <c r="J19">
-        <v>0.4586614173228347</v>
+        <v>0.4503950834064969</v>
       </c>
       <c r="K19">
-        <v>0.09744094488188976</v>
+        <v>0.09833187006145742</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01968503937007874</v>
+        <v>0.01755926251097454</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06988188976377953</v>
+        <v>0.07374890254609306</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1141732283464567</v>
+        <v>0.1132572431957858</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Coppin St._B.xlsx
+++ b/team_specific_matrix/Coppin St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1849529780564263</v>
+        <v>0.2011331444759207</v>
       </c>
       <c r="C2">
-        <v>0.567398119122257</v>
+        <v>0.5382436260623229</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0219435736677116</v>
+        <v>0.0226628895184136</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1536050156739812</v>
+        <v>0.1614730878186969</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07210031347962383</v>
+        <v>0.0764872521246459</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00546448087431694</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="C3">
-        <v>0.01639344262295082</v>
+        <v>0.015625</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03825136612021858</v>
+        <v>0.03645833333333334</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7704918032786885</v>
+        <v>0.7760416666666666</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1693989071038251</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05555555555555555</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7777777777777778</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1666666666666667</v>
+        <v>0.1891891891891892</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07106598984771574</v>
+        <v>0.07211538461538461</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01522842639593909</v>
+        <v>0.01442307692307692</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05583756345177665</v>
+        <v>0.05288461538461538</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2487309644670051</v>
+        <v>0.2596153846153846</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02538071065989848</v>
+        <v>0.02403846153846154</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1421319796954315</v>
+        <v>0.1394230769230769</v>
       </c>
       <c r="R6">
-        <v>0.1065989847715736</v>
+        <v>0.1057692307692308</v>
       </c>
       <c r="S6">
-        <v>0.3350253807106599</v>
+        <v>0.3317307692307692</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.103030303030303</v>
+        <v>0.1</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05454545454545454</v>
+        <v>0.07222222222222222</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1515151515151515</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01818181818181818</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1272727272727273</v>
+        <v>0.1277777777777778</v>
       </c>
       <c r="R7">
-        <v>0.09696969696969697</v>
+        <v>0.09444444444444444</v>
       </c>
       <c r="S7">
-        <v>0.4484848484848485</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1040462427745665</v>
+        <v>0.1054054054054054</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01445086705202312</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06358381502890173</v>
+        <v>0.05945945945945946</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.138728323699422</v>
+        <v>0.1378378378378378</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03179190751445087</v>
+        <v>0.02972972972972973</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1416184971098266</v>
+        <v>0.1540540540540541</v>
       </c>
       <c r="R8">
-        <v>0.09248554913294797</v>
+        <v>0.0918918918918919</v>
       </c>
       <c r="S8">
-        <v>0.4132947976878613</v>
+        <v>0.4081081081081081</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1162790697674419</v>
+        <v>0.1205673758865248</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02325581395348837</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0310077519379845</v>
+        <v>0.02836879432624113</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1085271317829457</v>
+        <v>0.1205673758865248</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0310077519379845</v>
+        <v>0.02836879432624113</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2170542635658915</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="R9">
-        <v>0.08527131782945736</v>
+        <v>0.07801418439716312</v>
       </c>
       <c r="S9">
-        <v>0.3875968992248062</v>
+        <v>0.3900709219858156</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1212996389891697</v>
+        <v>0.1224080267558528</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01732851985559567</v>
+        <v>0.01672240802675585</v>
       </c>
       <c r="E10">
-        <v>0.001444043321299639</v>
+        <v>0.001337792642140468</v>
       </c>
       <c r="F10">
-        <v>0.06570397111913358</v>
+        <v>0.06421404682274247</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1509025270758123</v>
+        <v>0.148494983277592</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02021660649819495</v>
+        <v>0.01939799331103679</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2</v>
+        <v>0.2053511705685619</v>
       </c>
       <c r="R10">
-        <v>0.07725631768953069</v>
+        <v>0.07357859531772576</v>
       </c>
       <c r="S10">
-        <v>0.3458483754512635</v>
+        <v>0.348494983277592</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1370967741935484</v>
+        <v>0.1423220973782771</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1008064516129032</v>
+        <v>0.09737827715355805</v>
       </c>
       <c r="K11">
-        <v>0.1814516129032258</v>
+        <v>0.1835205992509363</v>
       </c>
       <c r="L11">
-        <v>0.5766129032258065</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.004032258064516129</v>
+        <v>0.003745318352059925</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7364864864864865</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2027027027027027</v>
+        <v>0.2012578616352201</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.03378378378378379</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02702702702702703</v>
+        <v>0.02515723270440252</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7419354838709677</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1935483870967742</v>
+        <v>0.2</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06451612903225806</v>
+        <v>0.05714285714285714</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03619909502262444</v>
+        <v>0.03463203463203463</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1176470588235294</v>
+        <v>0.1168831168831169</v>
       </c>
       <c r="I15">
-        <v>0.05429864253393665</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="J15">
-        <v>0.416289592760181</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="K15">
-        <v>0.07239819004524888</v>
+        <v>0.06926406926406926</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06334841628959276</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2398190045248869</v>
+        <v>0.2424242424242424</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.009615384615384616</v>
+        <v>0.008968609865470852</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1298076923076923</v>
+        <v>0.1345291479820628</v>
       </c>
       <c r="I16">
-        <v>0.0625</v>
+        <v>0.05829596412556054</v>
       </c>
       <c r="J16">
-        <v>0.4807692307692308</v>
+        <v>0.4798206278026906</v>
       </c>
       <c r="K16">
-        <v>0.09134615384615384</v>
+        <v>0.08968609865470852</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01442307692307692</v>
+        <v>0.0179372197309417</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0576923076923077</v>
+        <v>0.06278026905829596</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1538461538461539</v>
+        <v>0.1479820627802691</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02267002518891688</v>
+        <v>0.02050113895216401</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1486146095717884</v>
+        <v>0.1526195899772209</v>
       </c>
       <c r="I17">
-        <v>0.07304785894206549</v>
+        <v>0.07289293849658314</v>
       </c>
       <c r="J17">
-        <v>0.4634760705289673</v>
+        <v>0.4646924829157175</v>
       </c>
       <c r="K17">
-        <v>0.08816120906801007</v>
+        <v>0.08656036446469248</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01007556675062972</v>
+        <v>0.009111617312072893</v>
       </c>
       <c r="N17">
-        <v>0.002518891687657431</v>
+        <v>0.002277904328018223</v>
       </c>
       <c r="O17">
-        <v>0.06045340050377834</v>
+        <v>0.05922551252847381</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1309823677581864</v>
+        <v>0.132118451025057</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01058201058201058</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1746031746031746</v>
+        <v>0.16751269035533</v>
       </c>
       <c r="I18">
-        <v>0.1058201058201058</v>
+        <v>0.1065989847715736</v>
       </c>
       <c r="J18">
-        <v>0.4867724867724867</v>
+        <v>0.5025380710659898</v>
       </c>
       <c r="K18">
-        <v>0.07407407407407407</v>
+        <v>0.07106598984771574</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01587301587301587</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05291005291005291</v>
+        <v>0.05076142131979695</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07936507936507936</v>
+        <v>0.07614213197969544</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01492537313432836</v>
+        <v>0.01385493072534637</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1826163301141352</v>
+        <v>0.1792991035044825</v>
       </c>
       <c r="I19">
-        <v>0.04916593503072871</v>
+        <v>0.05215973920130399</v>
       </c>
       <c r="J19">
-        <v>0.4503950834064969</v>
+        <v>0.449877750611247</v>
       </c>
       <c r="K19">
-        <v>0.09833187006145742</v>
+        <v>0.1002444987775061</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01755926251097454</v>
+        <v>0.01792991035044825</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07374890254609306</v>
+        <v>0.07090464547677261</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1132572431957858</v>
+        <v>0.1157294213528932</v>
       </c>
     </row>
   </sheetData>
